--- a/biology/Botanique/Ptilotus/Ptilotus.xlsx
+++ b/biology/Botanique/Ptilotus/Ptilotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ptilotus est un genre de plante sauvage de la famille des Amaranthaceae. Toutes les espèces sont originaires des régions les plus sèches de l'Australie continentale, bien que l'on trouve aussi une en Tasmanie et une autre en Malaisie, sur les îles de Florès et Timor. 
 Le genre a été décrit pour la première fois par le botaniste Robert Brown, dans Prodromus Florac Novae Hollandiae en 1810. 
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dipteranthemum F.Muell.
 Trichinium R.Br.</t>
@@ -544,7 +558,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon [réf. nécessaire] :
 Ptilotus aervoides (F.Muell.) F.Muell. 
@@ -636,7 +652,7 @@
 Ptilotus trichocephalus Benl 
 Ptilotus villosiflorus F.Muell.
 Ptilotus wilsonii Benl
-Selon NCBI  (2 août 2010)[2] :
+Selon NCBI  (2 août 2010) :
 Ptilotus drummondii
 Ptilotus exaltatus
 Ptilotus fusiformis
